--- a/CaseRecords12-08-2023.xlsx
+++ b/CaseRecords12-08-2023.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,9 +435,12 @@
   <cols>
     <col width="33" customWidth="1" min="1" max="1"/>
     <col width="40" customWidth="1" min="2" max="2"/>
-    <col width="56" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -453,15 +456,30 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>zip</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>charge</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>case_number</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>attorney_present</t>
         </is>
@@ -475,21 +493,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1244 Cirrus CT
-  Forney, TX 75126</t>
+          <t>1244 Cirrus CT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Forney</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75126</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>DRIVING WHILE INTOXICATED 2ND</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>001-810008-2023</t>
         </is>
       </c>
-      <c r="E2" t="b">
+      <c r="H2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -501,21 +533,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6005 Crest Ridge LN
-  Sachse, TX 75048</t>
+          <t>6005 Crest Ridge LN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Sachse</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75048</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>EVADING ARREST DETENTION</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>001-810009-2023</t>
         </is>
       </c>
-      <c r="E3" t="b">
+      <c r="H3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -527,21 +573,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5214 N Briar Ridge CIR
-  McKinney, TX 75072</t>
+          <t>5214 N Briar Ridge CIR</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>McKinney</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75072</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>DRIVING WHILE INTOXICATED 2ND</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>001-810010-2023</t>
         </is>
       </c>
-      <c r="E4" t="b">
+      <c r="H4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -553,21 +613,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6005 Crest Ridge LN
-  Sachse, TX 75048</t>
+          <t>6005 Crest Ridge LN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Sachse</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75048</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>THEFT PROP&gt;=$100&lt;$750</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>001-810011-2023</t>
         </is>
       </c>
-      <c r="E5" t="b">
+      <c r="H5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -579,21 +653,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1325 Primrose DR
-  Wylie, TX 75098</t>
+          <t>1325 Primrose DR</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Wylie</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75098</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>THEFT PROP&gt;=$100&lt;$750</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>001-810019-2023</t>
         </is>
       </c>
-      <c r="E6" t="b">
+      <c r="H6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -605,21 +693,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3411 High Mesa DR
-  Dallas, TX 75234</t>
+          <t>3411 High Mesa DR</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75234</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>CRIMINAL MISCHIEF &gt;=$100&lt;$750</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>001-810023-2023</t>
         </is>
       </c>
-      <c r="E7" t="b">
+      <c r="H7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -631,21 +733,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5350 Smiley RD
-  Celina, TX 75009</t>
+          <t>5350 Smiley RD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75009</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>POSS MARIJ &lt; 2OZ</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>002-810005-2023</t>
         </is>
       </c>
-      <c r="E8" t="b">
+      <c r="H8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -657,21 +773,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>27 GLENN KNOLL DR
-  WYLIE, TX 75098</t>
+          <t>27 GLENN KNOLL DR</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>WYLIE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75098</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>THEFT PROP&gt;=$100&lt;$750</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>002-810021-2023</t>
         </is>
       </c>
-      <c r="E9" t="b">
+      <c r="H9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -683,21 +813,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6832 Walnut ST
-  FRISCO, TX 75033</t>
+          <t>6832 Walnut ST</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>FRISCO</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75033</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>DRIVING WHILE INTOX W/BAC&gt;=0.15</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>002-810022-2023</t>
         </is>
       </c>
-      <c r="E10" t="b">
+      <c r="H10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -709,21 +853,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3140 Long Bow CT
-  Dallas, TX 75229</t>
+          <t>3140 Long Bow CT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75229</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>THEFT PROP&gt;=$100&lt;$750</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>002-810026-2023</t>
         </is>
       </c>
-      <c r="E11" t="b">
+      <c r="H11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -735,21 +893,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1910 Mans CIR
-  Garland, TX 75040</t>
+          <t>1910 Mans CIR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>Garland</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75040</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>THEFT PROP&gt;=$100&lt;$750</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>003-89999-2023</t>
         </is>
       </c>
-      <c r="E12" t="b">
+      <c r="H12" t="b">
         <v>1</v>
       </c>
     </row>
@@ -761,21 +933,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>910 S. 27th Street
-  Abilene, TX 79602</t>
+          <t>910 S. 27th Street</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>Abilene</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79602</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>FORGERY FINANCIAL INSTRUMENT &gt;=$100&lt;$750 IAT</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>003-810000-2023</t>
         </is>
       </c>
-      <c r="E13" t="b">
+      <c r="H13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -787,22 +973,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>512 West Lookout Drive
-  #212
-  Richardson, TX 75080</t>
+          <t>512 West Lookout Drive #212</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>Richardson</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75080</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>HARASSMENT W/PREV CONV</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>003-810001-2023</t>
         </is>
       </c>
-      <c r="E14" t="b">
+      <c r="H14" t="b">
         <v>1</v>
       </c>
     </row>
@@ -814,22 +1013,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5500 McKinney Place LN
-  APT 818
-  McKinney, TX 75070</t>
+          <t>5500 McKinney Place LN APT 818</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>McKinney</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75070</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>INDECENT EXPOSURE</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>003-810012-2023</t>
         </is>
       </c>
-      <c r="E15" t="b">
+      <c r="H15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -841,22 +1053,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3556 Flowing WAY
-  Plano, TX 75074</t>
+          <t>3556 Flowing WAY</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>Plano</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75074</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>DRIVING WHILE INTOXICATED</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>003-810016-2023</t>
         </is>
       </c>
-      <c r="E16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -867,22 +1093,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4210 Duck Creek
-  APT B25#108
-  Garland, TX 75043</t>
+          <t>4210 Duck Creek APT B25#108</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>Garland</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75043</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>DRIVING WHILE INTOXICATED 2ND</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>003-810020-2023</t>
         </is>
       </c>
-      <c r="E17" t="b">
+      <c r="H17" t="b">
         <v>1</v>
       </c>
     </row>
@@ -894,21 +1133,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>618 Stoneybrook DR
-  Wylie, TX 75098</t>
+          <t>618 Stoneybrook DR</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>Wylie</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75098</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>THEFT PROP&gt;=$100&lt;$750</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>003-810025-2023</t>
         </is>
       </c>
-      <c r="E18" t="b">
+      <c r="H18" t="b">
         <v>1</v>
       </c>
     </row>
@@ -920,22 +1173,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3000 PAINTED LAKE CIR
-  APT 310
-  THE COLONY, TX 75056</t>
+          <t>3000 PAINTED LAKE CIR APT 310</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>THE COLONY</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75056</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>DRIVING WHILE INTOX W/BAC&gt;=0.15</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>003-810027-2023</t>
         </is>
       </c>
-      <c r="E19" t="b">
+      <c r="H19" t="b">
         <v>1</v>
       </c>
     </row>
@@ -947,21 +1213,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9911 Whitehurst RD
-  Dallas, TX 75243</t>
+          <t>9911 Whitehurst RD</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75243</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>CRIMINAL TRESPASS</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>004-89998-2023</t>
         </is>
       </c>
-      <c r="E20" t="b">
+      <c r="H20" t="b">
         <v>1</v>
       </c>
     </row>
@@ -973,21 +1253,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HOMELESS
-  PLANO, TX 99999</t>
+          <t>HOMELESS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>PLANO</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99999</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>CRIMINAL TRESPASS</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>004-810004-2023</t>
         </is>
       </c>
-      <c r="E21" t="b">
+      <c r="H21" t="b">
         <v>1</v>
       </c>
     </row>
@@ -999,21 +1293,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2201 S State Highway 5
-  McKinney, TX 75069</t>
+          <t>2201 S State Highway 5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>McKinney</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>75069</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>THEFT PROP&gt;=$100&lt;$750</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>004-810015-2023</t>
         </is>
       </c>
-      <c r="E22" t="b">
+      <c r="H22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1025,22 +1333,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1409 N Zang BLVD
-  APT 1235
-  Dallas, TX 75203</t>
+          <t>1409 N Zang BLVD APT 1235</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75203</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>DRIVING WHILE INTOX W/BAC&gt;=0.15</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>004-810028-2023</t>
         </is>
       </c>
-      <c r="E23" t="b">
+      <c r="H23" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1052,21 +1373,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1730 Elizabeth DR
-  Carrollton, TX 75007</t>
+          <t>1730 Elizabeth DR</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>Carrollton</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75007</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>EVADING ARREST DETENTION</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>004-810029-2023</t>
         </is>
       </c>
-      <c r="E24" t="b">
+      <c r="H24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1076,17 +1411,27 @@
           <t>Taylor, Gabriel Nathaniel</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DL:</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>TX20431968</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>THEFT PROP&gt;=$100&lt;$750</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>004-810031-2023</t>
         </is>
       </c>
-      <c r="E25" t="b">
+      <c r="H25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1098,21 +1443,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3116 NW 32nd ST
-  Fort Worth, TX 76106</t>
+          <t>3116 NW 32nd ST</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76106</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>EVADING ARREST DETENTION</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>005-810002-2023</t>
         </is>
       </c>
-      <c r="E26" t="b">
+      <c r="H26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1124,21 +1483,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3116 NW 32nd ST
-  Fort Worth, TX 76106</t>
+          <t>3116 NW 32nd ST</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>76106</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>CRIMINAL TRESPASS</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>005-810003-2023</t>
         </is>
       </c>
-      <c r="E27" t="b">
+      <c r="H27" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1150,21 +1523,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4224 Capstone DR
-  CARROLLTON, TX 75007</t>
+          <t>4224 Capstone DR</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>CARROLLTON</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75007</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>DRIVING WHILE INTOXICATED 2ND</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>005-810006-2023</t>
         </is>
       </c>
-      <c r="E28" t="b">
+      <c r="H28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1176,21 +1563,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5429 PRAIRIE LN
-  GRAND PRAIRIE, TX 75052</t>
+          <t>5429 PRAIRIE LN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>GRAND PRAIRIE</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75052</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>THEFT PROP &gt;=$100&lt;$750</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>005-810017-2023</t>
         </is>
       </c>
-      <c r="E29" t="b">
+      <c r="H29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1202,22 +1603,35 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5050 Haverwood LN W
-  APT 612
-  DALLAS, TX 75287</t>
+          <t>5050 Haverwood LN W APT 612</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>DALLAS</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>75287</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>THEFT PROP &gt;=$100&lt;$750</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>005-810018-2023</t>
         </is>
       </c>
-      <c r="E30" t="b">
+      <c r="H30" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1229,21 +1643,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4656 Penelope LN
-  Plano, TX 75024</t>
+          <t>4656 Penelope LN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>Plano</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>75024</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>HARASSMENT</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>005-810030-2023</t>
         </is>
       </c>
-      <c r="E31" t="b">
+      <c r="H31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1255,21 +1683,35 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5426 Meadowcreek DR
-  Dallas, TX 75248</t>
+          <t>5426 Meadowcreek DR</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>75248</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>THEFT PROP&gt;=$100&lt;$750</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>005-810032-2023</t>
         </is>
       </c>
-      <c r="E32" t="b">
+      <c r="H32" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1281,21 +1723,35 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1952 Vantage DR
-  Plano, TX 75075</t>
+          <t>1952 Vantage DR</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>Plano</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>75075</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>ASSAULT CAUSES BODILY INJ</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>006-810007-2023</t>
         </is>
       </c>
-      <c r="E33" t="b">
+      <c r="H33" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1307,21 +1763,35 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1108 Hughes CT
-  Wylie, TX 75098</t>
+          <t>1108 Hughes CT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>Wylie</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>75098</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>THEFT PROP&gt;=$100&lt;$750</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>006-810013-2023</t>
         </is>
       </c>
-      <c r="E34" t="b">
+      <c r="H34" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1333,21 +1803,35 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1309 S POWELL PKWY
-  ANNA, TX 75409</t>
+          <t>1309 S POWELL PKWY</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>ANNA</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>75409</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>DRIVING WHILE INTOX W/BAC&gt;=0.15</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>007-810014-2023</t>
         </is>
       </c>
-      <c r="E35" t="b">
+      <c r="H35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1359,21 +1843,35 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3444 Tarkio RD
-  Dallas, TX 75074</t>
+          <t>3444 Tarkio RD</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>75074</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>DRIVING WHILE INTOX W/BAC&gt;=0.15</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>007-810024-2023</t>
         </is>
       </c>
-      <c r="E36" t="b">
+      <c r="H36" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1385,21 +1883,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6315 Lakecrest DR
-  Sachse, TX 75048</t>
+          <t>6315 Lakecrest DR</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>Sachse</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>75048</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>THEFT PROP&gt;=$100&lt;$750</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>007-810033-2023</t>
         </is>
       </c>
-      <c r="E37" t="b">
+      <c r="H37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1411,21 +1923,35 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6315 Lakecrest DR
-  Sachse, TX 75048</t>
+          <t>6315 Lakecrest DR</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>Sachse</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>75048</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>EVADING ARREST DETENTION</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>007-810034-2023</t>
         </is>
       </c>
-      <c r="E38" t="b">
+      <c r="H38" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1437,21 +1963,35 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2326 Wisterwood
-  Crandall, TX 75114</t>
+          <t>2326 Wisterwood</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>Crandall</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>75114</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>ASSAULT INT/RECK BREATH/CIRC FAM MEM PREV IAT</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>219-87254-2023</t>
         </is>
       </c>
-      <c r="E39" t="b">
+      <c r="H39" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1463,21 +2003,35 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1620 WYNFIELD DRIVE
-  Little Elm, TX 75068</t>
+          <t>1620 WYNFIELD DRIVE</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>Little Elm</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>75068</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>INJURY CHILD/ELDERLY/DISABLED RECKLESS BODILY INJ</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>380-87168-2023</t>
         </is>
       </c>
-      <c r="E40" t="b">
+      <c r="H40" t="b">
         <v>1</v>
       </c>
     </row>
